--- a/02_test_cases/3_shopping_cart/shopping_cart.xlsx
+++ b/02_test_cases/3_shopping_cart/shopping_cart.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\swag_labs\swaglabs-qa-manual-project\02_test_cases\3_shopping_cart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977E0B5-87AA-420D-9074-067F1144DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -134,154 +143,137 @@
     <t>TC_shopping_cart_07</t>
   </si>
   <si>
-    <t>Verify that the user can add multiple products and navigate to their detail pages successfully</t>
+    <t>TC_shopping_cart_08</t>
+  </si>
+  <si>
+    <t>The first and second click works, but subsequent clicks do not respond.</t>
   </si>
   <si>
     <t>1. Click "Add to cart" on the first product
 2. Click "Add to cart"on a second product
-3. Click on the cart icon (top rigth corner)</t>
-  </si>
-  <si>
-    <t>The cart icon shows "2". The cart page lists all 2 selected products with correct details.</t>
-  </si>
-  <si>
-    <t>The first click works, but subsequent clicks do not respond.</t>
-  </si>
-  <si>
-    <t>TC_shopping_cart_08</t>
+3. Click on "Add to cart" a third product</t>
+  </si>
+  <si>
+    <t>The cart icon shows "3". The cart page lists all 2 selected products with correct details.</t>
+  </si>
+  <si>
+    <t>User logged in as problem_user. Be on the page inventory page, and at least one item must be already added to the cart.</t>
+  </si>
+  <si>
+    <t>Verify that the "problem_user" can add multiple products and navigate to their detail pages successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF343333"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -471,270 +463,238 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61AFE27-F460-4DE3-B033-40FA50B11B2D}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="21.13"/>
-    <col customWidth="1" min="3" max="3" width="20.38"/>
-    <col customWidth="1" min="4" max="4" width="35.25"/>
-    <col customWidth="1" min="5" max="6" width="22.75"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>